--- a/documentos/cronograma_carol.xlsx
+++ b/documentos/cronograma_carol.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carolline.barros\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carolline.barros\Desktop\helen\senai-dev-1s2020\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33713158-1DDF-4491-9531-DFDDE25B39CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF4B213-CD8F-47B6-B1DC-7773DFBA10CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15996" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -183,9 +183,6 @@
     <t>Sprint 1</t>
   </si>
   <si>
-    <t>ALINHAMENTO</t>
-  </si>
-  <si>
     <t>Sprint 2</t>
   </si>
   <si>
@@ -277,6 +274,9 @@
   </si>
   <si>
     <t>, Postman, Swagger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALINHAMENTO </t>
   </si>
 </sst>
 </file>
@@ -2508,9 +2508,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:CZ55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CY53" sqref="CY53"/>
+      <selection pane="topRight" activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2543,16 +2543,16 @@
         <v>50</v>
       </c>
       <c r="C1" s="101" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="101" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="101" t="s">
+      <c r="E1" s="101" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="101" t="s">
+      <c r="F1" s="101" t="s">
         <v>54</v>
-      </c>
-      <c r="F1" s="101" t="s">
-        <v>55</v>
       </c>
       <c r="G1" s="147"/>
       <c r="H1" s="101"/>
@@ -3285,7 +3285,7 @@
         <v>42</v>
       </c>
       <c r="B16" s="113" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G16" s="151"/>
       <c r="N16" s="87"/>
@@ -3361,7 +3361,7 @@
       <c r="G20" s="150"/>
       <c r="Q20" s="150"/>
       <c r="S20" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="X20" s="150"/>
       <c r="AA20" s="94"/>
@@ -3381,7 +3381,7 @@
       <c r="G21" s="150"/>
       <c r="Q21" s="150"/>
       <c r="S21" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="X21" s="150"/>
       <c r="AA21" s="94"/>
@@ -3401,7 +3401,7 @@
       <c r="G22" s="150"/>
       <c r="Q22" s="150"/>
       <c r="S22" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="X22" s="150"/>
       <c r="AA22" s="94"/>
@@ -3421,13 +3421,13 @@
       <c r="G23" s="150"/>
       <c r="Q23" s="150"/>
       <c r="S23" s="91" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T23" s="91" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="U23" s="92" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V23" s="93"/>
       <c r="W23" s="93"/>
@@ -3453,16 +3453,16 @@
       <c r="X24" s="150"/>
       <c r="AA24" s="94"/>
       <c r="AB24" s="167" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AC24" s="168"/>
       <c r="AD24" s="167" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AE24" s="169"/>
       <c r="AF24" s="90"/>
       <c r="AG24" s="91" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH24" s="90"/>
       <c r="AI24" s="90"/>
@@ -3481,7 +3481,7 @@
       <c r="G25" s="150"/>
       <c r="Q25" s="150"/>
       <c r="S25" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="X25" s="150"/>
       <c r="AA25" s="94"/>
@@ -3532,7 +3532,7 @@
         <v>46</v>
       </c>
       <c r="B28" s="119" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G28" s="151"/>
       <c r="Q28" s="151"/>
@@ -3592,7 +3592,7 @@
       <c r="X31" s="150"/>
       <c r="AC31" s="150"/>
       <c r="AS31" s="156" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AT31" s="96"/>
       <c r="AU31" s="96"/>
@@ -3615,7 +3615,7 @@
       <c r="AC32" s="150"/>
       <c r="AW32" s="96"/>
       <c r="AY32" s="156" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AZ32" s="96"/>
       <c r="BA32" s="96"/>
@@ -3674,17 +3674,17 @@
         <v>47</v>
       </c>
       <c r="B35" s="125" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G35" s="151"/>
       <c r="Q35" s="151"/>
       <c r="X35" s="151"/>
       <c r="AC35" s="151"/>
       <c r="BH35" s="159" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="BI35" s="159" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="BJ35" s="86"/>
       <c r="BK35" s="86"/>
@@ -3838,7 +3838,7 @@
         <v>48</v>
       </c>
       <c r="B44" s="131" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G44" s="151"/>
       <c r="Q44" s="151"/>
@@ -3849,7 +3849,7 @@
       <c r="BV44" s="88"/>
       <c r="BW44" s="150"/>
       <c r="CA44" s="157" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CB44" s="97"/>
       <c r="CC44" s="97"/>
@@ -3983,7 +3983,7 @@
         <v>49</v>
       </c>
       <c r="B53" s="137" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G53" s="151"/>
       <c r="Q53" s="151"/>
@@ -4003,7 +4003,7 @@
     </row>
     <row r="54" spans="1:104" s="64" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="63" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="B54" s="139"/>
       <c r="G54" s="152"/>
@@ -4051,42 +4051,42 @@
   <sheetData>
     <row r="1" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A1" s="79" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" s="160" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="77" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="78" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="75" t="s">
         <v>66</v>
-      </c>
-      <c r="C1" s="76" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="77" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="78" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="75" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A3" s="82" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="83" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="83" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="83" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="83" t="s">
+      <c r="E3" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="83" t="s">
-        <v>63</v>
-      </c>
       <c r="F3" s="83" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:100" ht="28.8" x14ac:dyDescent="0.3">
@@ -4094,7 +4094,7 @@
         <v>43853</v>
       </c>
       <c r="B4" s="161" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C4" s="162"/>
       <c r="D4" s="162"/>
@@ -4200,7 +4200,7 @@
         <v>43854</v>
       </c>
       <c r="B5" s="163" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C5" s="163"/>
       <c r="D5" s="163"/>
